--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
   <si>
     <t>土地坐落</t>
   </si>
@@ -343,6 +343,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -446,6 +455,9 @@
   </si>
   <si>
     <t>220，000</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1945,13 +1957,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1970,16 +1982,25 @@
       <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -1993,16 +2014,25 @@
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2016,13 +2046,22 @@
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2039,13 +2078,22 @@
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2062,13 +2110,22 @@
       <c r="G5" s="2">
         <v>120700</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2085,13 +2142,22 @@
       <c r="G6" s="2">
         <v>367180</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2108,13 +2174,22 @@
       <c r="G7" s="2">
         <v>252780</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2131,13 +2206,22 @@
       <c r="G8" s="2">
         <v>824000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2154,13 +2238,22 @@
       <c r="G9" s="2">
         <v>764210</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2177,13 +2270,22 @@
       <c r="G10" s="2">
         <v>829500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2200,13 +2302,22 @@
       <c r="G11" s="2">
         <v>145360</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2223,13 +2334,22 @@
       <c r="G12" s="2">
         <v>116320</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2246,13 +2366,22 @@
       <c r="G13" s="2">
         <v>12530</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2269,13 +2398,22 @@
       <c r="G14" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2292,13 +2430,22 @@
       <c r="G15" s="2">
         <v>1142400</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2313,15 +2460,24 @@
         <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2338,13 +2494,22 @@
       <c r="G17" s="2">
         <v>2161560</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2359,21 +2524,30 @@
         <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -2384,19 +2558,28 @@
       <c r="G19" s="2">
         <v>2570060</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2405,21 +2588,30 @@
         <v>99</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2428,18 +2620,27 @@
         <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -2453,19 +2654,28 @@
       <c r="G22" s="2">
         <v>375000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -2476,13 +2686,22 @@
       <c r="G23" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2499,19 +2718,28 @@
       <c r="G24" s="2">
         <v>1590</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -2522,13 +2750,22 @@
       <c r="G25" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -2545,13 +2782,22 @@
       <c r="G26" s="2">
         <v>63740</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -2567,6 +2813,15 @@
       </c>
       <c r="G27" s="2">
         <v>100000</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -2584,13 +2839,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2598,10 +2853,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2612,10 +2867,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2626,10 +2881,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -2640,10 +2895,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2654,10 +2909,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2668,10 +2923,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -2682,10 +2937,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -2696,10 +2951,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -2710,10 +2965,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -2737,19 +2992,19 @@
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2757,22 +3012,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2780,22 +3035,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2803,22 +3058,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2826,22 +3081,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="177">
   <si>
     <t>土地坐落</t>
   </si>
@@ -343,6 +343,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -358,7 +361,7 @@
     <t>華邦電子</t>
   </si>
   <si>
-    <t>勤美 .</t>
+    <t>勤美.</t>
   </si>
   <si>
     <t>大同</t>
@@ -430,31 +433,31 @@
     <t>紀國楝</t>
   </si>
   <si>
-    <t>257，006</t>
-  </si>
-  <si>
-    <t>28，700</t>
-  </si>
-  <si>
-    <t>22，000</t>
-  </si>
-  <si>
-    <t>21，000</t>
-  </si>
-  <si>
-    <t>10，000</t>
-  </si>
-  <si>
-    <t>1，000,000</t>
-  </si>
-  <si>
-    <t>1,000，000</t>
-  </si>
-  <si>
-    <t>287，000</t>
-  </si>
-  <si>
-    <t>220，000</t>
+    <t>257006</t>
+  </si>
+  <si>
+    <t>28700</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>287000</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-16</t>
@@ -1957,13 +1960,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1991,16 +1994,19 @@
       <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2018,21 +2024,24 @@
         <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2">
+        <v>146</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2050,18 +2059,21 @@
         <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2082,18 +2094,21 @@
         <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
+        <v>146</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2114,18 +2129,21 @@
         <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2">
+        <v>146</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2146,18 +2164,21 @@
         <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
+        <v>146</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2178,18 +2199,21 @@
         <v>145</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
+        <v>146</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2210,18 +2234,21 @@
         <v>145</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2">
+        <v>146</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2242,18 +2269,21 @@
         <v>145</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
+        <v>146</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2274,18 +2304,21 @@
         <v>145</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2">
+        <v>146</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2306,18 +2339,21 @@
         <v>145</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2">
+        <v>146</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2338,18 +2374,21 @@
         <v>145</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2">
+        <v>146</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2370,18 +2409,21 @@
         <v>145</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2">
+        <v>146</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2402,18 +2444,21 @@
         <v>145</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2">
+        <v>146</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2434,18 +2479,21 @@
         <v>145</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2">
+        <v>146</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2460,24 +2508,27 @@
         <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2">
+        <v>146</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2498,18 +2549,21 @@
         <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2">
+        <v>146</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2530,24 +2584,27 @@
         <v>145</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2">
+        <v>146</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -2562,24 +2619,27 @@
         <v>145</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2">
+        <v>146</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2594,24 +2654,27 @@
         <v>145</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="2">
+        <v>146</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2626,21 +2689,24 @@
         <v>145</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2">
+        <v>146</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -2658,24 +2724,27 @@
         <v>145</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2">
+        <v>146</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -2690,18 +2759,21 @@
         <v>145</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2">
+        <v>146</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2722,24 +2794,27 @@
         <v>145</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="2">
+        <v>146</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -2754,18 +2829,21 @@
         <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2">
+        <v>146</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -2786,18 +2864,21 @@
         <v>145</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="2">
+        <v>146</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -2818,9 +2899,12 @@
         <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="2">
+        <v>146</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="2">
         <v>918</v>
       </c>
     </row>
@@ -2839,13 +2923,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2853,10 +2937,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2867,10 +2951,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2881,10 +2965,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -2895,10 +2979,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2909,10 +2993,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2923,10 +3007,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -2937,10 +3021,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -2951,10 +3035,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -2965,10 +3049,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -2992,19 +3076,19 @@
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3012,22 +3096,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3035,22 +3119,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3058,22 +3142,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3081,22 +3165,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="182">
   <si>
     <t>土地坐落</t>
   </si>
@@ -346,6 +346,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -355,6 +358,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -460,7 +469,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmpf6b91</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1960,13 +1975,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1997,16 +2012,25 @@
       <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2021,27 +2045,36 @@
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
+        <v>150</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2056,24 +2089,33 @@
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -2091,24 +2133,33 @@
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -2126,24 +2177,33 @@
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2161,24 +2221,33 @@
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2196,24 +2265,33 @@
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2231,24 +2309,33 @@
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2266,24 +2353,33 @@
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="2">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -2301,24 +2397,33 @@
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2">
+        <v>150</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2336,24 +2441,33 @@
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
+        <v>150</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2371,24 +2485,33 @@
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2406,24 +2529,33 @@
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2441,24 +2573,33 @@
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2476,24 +2617,33 @@
         <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="2">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2508,27 +2658,36 @@
         <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="2">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2546,24 +2705,33 @@
         <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="2">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2578,33 +2746,42 @@
         <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="2">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -2616,30 +2793,39 @@
         <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2648,33 +2834,42 @@
         <v>99</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2">
+        <v>150</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2683,30 +2878,39 @@
         <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -2721,30 +2925,39 @@
         <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="2">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -2756,24 +2969,33 @@
         <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="2">
+        <v>150</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2791,30 +3013,39 @@
         <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="2">
+        <v>150</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -2826,24 +3057,33 @@
         <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="2">
+        <v>150</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -2861,24 +3101,33 @@
         <v>63740</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="2">
+        <v>150</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -2896,16 +3145,25 @@
         <v>100000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="2">
+        <v>150</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="2">
         <v>918</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N27" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2923,13 +3181,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2937,10 +3195,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2951,10 +3209,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2965,10 +3223,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -2979,10 +3237,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2993,10 +3251,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -3007,10 +3265,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -3021,10 +3279,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -3035,10 +3293,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -3049,10 +3307,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -3076,19 +3334,19 @@
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3096,22 +3354,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3119,22 +3377,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3142,22 +3400,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3165,22 +3423,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,9 +20,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="182">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="185">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市大肚區井子頭段井子頭小段00100007地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段01680000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段00840000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區信安段02390005地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之1036</t>
+  </si>
+  <si>
+    <t>100000分之1518</t>
+  </si>
+  <si>
+    <t>100000分之528</t>
+  </si>
+  <si>
+    <t>100000分之1020</t>
+  </si>
+  <si>
+    <t>紀國棟</t>
+  </si>
+  <si>
+    <t>郭綺雯</t>
+  </si>
+  <si>
+    <t>74年11月18日</t>
+  </si>
+  <si>
+    <t>95年05月17日</t>
+  </si>
+  <si>
+    <t>100年10月06曰</t>
+  </si>
+  <si>
+    <t>96年09月18日</t>
+  </si>
+  <si>
+    <t>99年06月08日</t>
+  </si>
+  <si>
+    <t>100年05月05曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>11000000(含房地及停車位編號85208其上房屋建號為臺中市南屯區惠義段588號）</t>
+  </si>
+  <si>
+    <t>23400000(含房地及停車位編號59其上房屋建號為臺中市南屯區惠義段606號）</t>
+  </si>
+  <si>
+    <t>6000000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>16800000(含房地及停車位編號717293155156其上房屋建號為臺中市南屯區惠義段597號）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmpf6b91</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,190 +169,109 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市大肚區井子頭段井子頭 小段0010-0007地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段0168-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段0084-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區信安段0239-0005 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之 1036</t>
-  </si>
-  <si>
-    <t>100000 分 之 1518</t>
-  </si>
-  <si>
-    <t>100000 分 之528</t>
-  </si>
-  <si>
-    <t>100000 分 之 1020</t>
-  </si>
-  <si>
-    <t>紀國棟</t>
-  </si>
-  <si>
-    <t>郭綺雯</t>
-  </si>
-  <si>
-    <t>74年11月 18日</t>
-  </si>
-  <si>
-    <t>95年05月 17日</t>
-  </si>
-  <si>
-    <t>100 年 10 月06曰</t>
-  </si>
-  <si>
-    <t>96年09月 18日</t>
-  </si>
-  <si>
-    <t>99年06月 08日</t>
-  </si>
-  <si>
-    <t>100 年 05 月05曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>11,000’000(含 房、地及停車位 編號 85、208’ 其上房屋建號 為臺中市南屯 區惠義段588 號）</t>
-  </si>
-  <si>
-    <t>23，400,000(含 房、地及停車位 編號59,其上 房屋建號為臺 中市南屯區惠 義段606號）</t>
-  </si>
-  <si>
-    <t>6,000,000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>16,800，000(含 房、地及停車位 編號71、72、 93 ' 155、156, 其上房屋建號 為臺中市南屯 區惠義段597 號）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市大肚區井子頭段井子頭 小段00463-000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00588 - 000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00616-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00617-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00618-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段00864 - 000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00597-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00606-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區信安段04115-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之 1592</t>
-  </si>
-  <si>
-    <t>100000 分 之 1111</t>
-  </si>
-  <si>
-    <t>100000 分 之 1916</t>
-  </si>
-  <si>
-    <t>100000 分 之 1986</t>
-  </si>
-  <si>
-    <t>100000 分 之 1093</t>
-  </si>
-  <si>
-    <t>100000 分 之 2265</t>
-  </si>
-  <si>
-    <t>100000 分 之 1038</t>
-  </si>
-  <si>
-    <t>100000 分 之 1627</t>
-  </si>
-  <si>
-    <t>100000 分 之414</t>
-  </si>
-  <si>
-    <t>74年11月 18曰</t>
-  </si>
-  <si>
-    <t>95年05月 17曰</t>
-  </si>
-  <si>
-    <t>100 年 05 月05日</t>
-  </si>
-  <si>
-    <t>1 100 年 10 月06曰</t>
-  </si>
-  <si>
-    <t>100 年 02 月17曰</t>
+    <t>臺中市大肚區井子頭段井子頭小段00463000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00588000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00616000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00617000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00618000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段00864000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00597000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00606000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區信安段04115000建號</t>
+  </si>
+  <si>
+    <t>100000分之1592</t>
+  </si>
+  <si>
+    <t>100000分之1111</t>
+  </si>
+  <si>
+    <t>100000分之1916</t>
+  </si>
+  <si>
+    <t>100000分之1986</t>
+  </si>
+  <si>
+    <t>100000分之1093</t>
+  </si>
+  <si>
+    <t>100000分之2265</t>
+  </si>
+  <si>
+    <t>100000分之1038</t>
+  </si>
+  <si>
+    <t>100000分之1627</t>
+  </si>
+  <si>
+    <t>100000分之414</t>
+  </si>
+  <si>
+    <t>74年11月18曰</t>
+  </si>
+  <si>
+    <t>95年05月17曰</t>
+  </si>
+  <si>
+    <t>100年05月05日</t>
+  </si>
+  <si>
+    <t>1100年10月06曰</t>
+  </si>
+  <si>
+    <t>100年02月17曰</t>
   </si>
   <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>11,000，000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>11,000,000(與 588建號一併 購買，共有部 分）</t>
-  </si>
-  <si>
-    <t>11,000,000(^1 588建號一併 購買，共有部 分）</t>
-  </si>
-  <si>
-    <t>11,000,000(停 車位編號 085'208 與 588 建號一併購 買、車位編號 071、072 與建 號597 —併購 買，共有部分： 含停車位編號 071、072、085、 208)</t>
-  </si>
-  <si>
-    <t>6,000，000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>16,800，000(含 房、地及停車 位）</t>
-  </si>
-  <si>
-    <t>16,800,000(與 597建號一併 購買，共有部 分）</t>
-  </si>
-  <si>
-    <t>16,800,000(^1 597建號一併 購買,共有部 分）</t>
-  </si>
-  <si>
-    <t>16,800,000 (停車位編號 93 、 155 、 156 與597建號一 併購買、編號 177、178 另以</t>
-  </si>
-  <si>
-    <t>23,400,000(含 房'地及停車 位）</t>
-  </si>
-  <si>
-    <t>23,400,000(1^ 606建號一併 購買,共有部 分）</t>
-  </si>
-  <si>
-    <t>23,400,000(^1 606建號一併 購買,共有部 分）</t>
-  </si>
-  <si>
-    <t>23’400，000(與 606建號一併 購買，共有部 分:含停車位編 號 059)</t>
+    <t>11000000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>11000000(與588建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>11000000(1588建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>11000000(停車位編號085208與588建號一併購買車位編號071072與建號597—併購買共有部分：含停車位編號071072085208)</t>
+  </si>
+  <si>
+    <t>16800000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>16800000(與597建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>16800000(1597建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>16800000(停車位編號93155156與597建號一併購買編號177178另以</t>
+  </si>
+  <si>
+    <t>23400000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>23400000(1606建號一併購買共有部分）</t>
+  </si>
+  <si>
+    <t>23400000(與606建號一併購買共有部分:含停車位編號059)</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -241,7 +286,7 @@
     <t>小客車奧迪</t>
   </si>
   <si>
-    <t>小客車BMW X5</t>
+    <t>小客車BMWX5</t>
   </si>
   <si>
     <t>小客車福斯</t>
@@ -250,16 +295,16 @@
     <t>小客車朋馳</t>
   </si>
   <si>
-    <t>96年12月 28日</t>
-  </si>
-  <si>
-    <t>100 年 01 月11曰</t>
-  </si>
-  <si>
-    <t>99年09月 14日</t>
-  </si>
-  <si>
-    <t>101 年 02 月29曰</t>
+    <t>96年12月28日</t>
+  </si>
+  <si>
+    <t>100年01月11曰</t>
+  </si>
+  <si>
+    <t>99年09月14日</t>
+  </si>
+  <si>
+    <t>101年02月29曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -277,10 +322,10 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台新國際商業銀行文心分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行臺中分 行</t>
+    <t>台新國際商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行臺中分行</t>
   </si>
   <si>
     <t>臺灣銀行武昌分行</t>
@@ -298,22 +343,22 @@
     <t>台中商業銀行西臺中分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行文心分 行</t>
+    <t>中國信託商業銀行文心分行</t>
   </si>
   <si>
     <t>臺灣銀行中臺中分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司士 林法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司臺 中法院郵局</t>
+    <t>中華郵政股份有限公司士林法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司臺中法院郵局</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>活期存款 .</t>
+    <t>活期存款.</t>
   </si>
   <si>
     <t>定期存款</t>
@@ -325,12 +370,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -343,27 +382,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -469,15 +487,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-16</t>
-  </si>
-  <si>
-    <t>tmpf6b91</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -514,7 +523,7 @@
     <t>儲蓄壽險</t>
   </si>
   <si>
-    <t>GPLB 二十年繳費终生壽險</t>
+    <t>GPLB二十年繳費终生壽險</t>
   </si>
   <si>
     <t>保誠美滿養老保險</t>
@@ -538,28 +547,28 @@
     <t>抵押貸款</t>
   </si>
   <si>
-    <t>臺中市大肚鄉農會 臺中市大肚區沙田路</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行文心分行 臺中市北屯區文心路</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行豐原分行 臺中市豐原區三民路</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行文心分行 臺中市北屯區文心路</t>
-  </si>
-  <si>
-    <t>96年03月 15日</t>
-  </si>
-  <si>
-    <t>96年09月 21日</t>
-  </si>
-  <si>
-    <t>100年05月 06日</t>
-  </si>
-  <si>
-    <t>100年10月 12日</t>
+    <t>臺中市大肚鄉農會臺中市大肚區沙田路</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行文心分行臺中市北屯區文心路</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行豐原分行臺中市豐原區三民路</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行文心分行臺中市北屯區文心路</t>
+  </si>
+  <si>
+    <t>96年03月15日</t>
+  </si>
+  <si>
+    <t>96年09月21日</t>
+  </si>
+  <si>
+    <t>100年05月06日</t>
+  </si>
+  <si>
+    <t>100年10月12日</t>
   </si>
   <si>
     <t>付房屋貸款</t>
@@ -924,13 +933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,161 +961,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>918</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3249.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>918</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>3249.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>918</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>2033.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>918</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>78.57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>612846</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>918</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>3249.05</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>918</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1124,25 +1280,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1150,25 +1306,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>189.42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1176,25 +1332,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>138.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1202,25 +1358,25 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>7702.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1228,25 +1384,25 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>2712.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1254,25 +1410,25 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>3129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1280,25 +1436,25 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>35.57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1306,25 +1462,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>136.43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1332,25 +1488,25 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>7702.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1358,25 +1514,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>2712.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1384,25 +1540,25 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>3129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1410,25 +1566,25 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>203.31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1436,25 +1592,25 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
         <v>7702.32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1462,25 +1618,25 @@
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>2712.6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1488,25 +1644,25 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2">
         <v>3129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1514,22 +1670,22 @@
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2">
         <v>156.99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2">
         <v>426700</v>
@@ -1550,22 +1706,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1573,19 +1729,19 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -1596,19 +1752,19 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2">
         <v>4799</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>1450000</v>
@@ -1619,19 +1775,19 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2">
         <v>2461</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>1200000</v>
@@ -1642,19 +1798,19 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
         <v>3199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>400000</v>
@@ -1675,22 +1831,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1698,16 +1854,16 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1719,16 +1875,16 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1740,16 +1896,16 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1761,16 +1917,16 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1782,16 +1938,16 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1803,16 +1959,16 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>3193.05</v>
@@ -1826,16 +1982,16 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1847,16 +2003,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1868,16 +2024,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1889,16 +2045,16 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1910,16 +2066,16 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1931,16 +2087,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1952,16 +2108,16 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1983,43 +2139,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2027,10 +2183,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2039,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>918</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
         <v>88</v>
@@ -2071,10 +2227,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2083,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>918</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2">
         <v>89</v>
@@ -2115,10 +2271,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>269000</v>
@@ -2127,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>918</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2">
         <v>90</v>
@@ -2159,10 +2315,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>12070</v>
@@ -2171,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>918</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2">
         <v>91</v>
@@ -2203,10 +2359,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>36718</v>
@@ -2215,28 +2371,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>918</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2">
         <v>92</v>
@@ -2247,10 +2403,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>25278</v>
@@ -2259,28 +2415,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>918</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N7" s="2">
         <v>93</v>
@@ -2291,10 +2447,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>82400</v>
@@ -2303,28 +2459,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>918</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N8" s="2">
         <v>94</v>
@@ -2335,10 +2491,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>76421</v>
@@ -2347,28 +2503,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>918</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2">
         <v>95</v>
@@ -2379,10 +2535,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>82950</v>
@@ -2391,28 +2547,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>918</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2">
         <v>96</v>
@@ -2423,10 +2579,10 @@
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>14536</v>
@@ -2435,28 +2591,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2">
         <v>918</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N11" s="2">
         <v>98</v>
@@ -2467,10 +2623,10 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>11632</v>
@@ -2479,28 +2635,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2">
         <v>918</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2">
         <v>99</v>
@@ -2511,10 +2667,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>1253</v>
@@ -2523,28 +2679,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L13" s="2">
         <v>918</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N13" s="2">
         <v>100</v>
@@ -2555,10 +2711,10 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>15000</v>
@@ -2567,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2">
         <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N14" s="2">
         <v>101</v>
@@ -2599,10 +2755,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>114240</v>
@@ -2611,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2">
         <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L15" s="2">
         <v>918</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N15" s="2">
         <v>102</v>
@@ -2643,10 +2799,10 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>100000</v>
@@ -2655,28 +2811,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2">
         <v>918</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N16" s="2">
         <v>103</v>
@@ -2687,10 +2843,10 @@
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>216156</v>
@@ -2699,28 +2855,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
         <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L17" s="2">
         <v>918</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N17" s="2">
         <v>104</v>
@@ -2731,10 +2887,10 @@
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>100000</v>
@@ -2743,28 +2899,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L18" s="2">
         <v>918</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N18" s="2">
         <v>105</v>
@@ -2775,40 +2931,40 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2">
         <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L19" s="2">
         <v>918</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2">
         <v>106</v>
@@ -2819,40 +2975,40 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L20" s="2">
         <v>918</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N20" s="2">
         <v>107</v>
@@ -2863,40 +3019,40 @@
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L21" s="2">
         <v>918</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N21" s="2">
         <v>108</v>
@@ -2907,10 +3063,10 @@
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -2919,28 +3075,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2">
         <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L22" s="2">
         <v>918</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N22" s="2">
         <v>109</v>
@@ -2951,40 +3107,40 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2">
         <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L23" s="2">
         <v>918</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N23" s="2">
         <v>110</v>
@@ -2995,10 +3151,10 @@
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>159</v>
@@ -3007,28 +3163,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2">
         <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L24" s="2">
         <v>918</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N24" s="2">
         <v>111</v>
@@ -3039,40 +3195,40 @@
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2">
         <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L25" s="2">
         <v>918</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N25" s="2">
         <v>112</v>
@@ -3083,10 +3239,10 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>6374</v>
@@ -3095,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2">
         <v>63740</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L26" s="2">
         <v>918</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N26" s="2">
         <v>113</v>
@@ -3127,10 +3283,10 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>10000</v>
@@ -3139,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2">
         <v>100000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L27" s="2">
         <v>918</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N27" s="2">
         <v>114</v>
@@ -3181,13 +3337,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3195,13 +3351,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3209,13 +3365,13 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3223,13 +3379,13 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,13 +3393,13 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3251,13 +3407,13 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3265,13 +3421,13 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3279,13 +3435,13 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3293,13 +3449,13 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3307,13 +3463,13 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3331,22 +3487,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3354,22 +3510,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3377,22 +3533,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3400,22 +3556,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3423,22 +3579,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市大肚區井子頭段井子頭小段00100007地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市南屯區惠義段01680000地號</t>
@@ -76,18 +79,18 @@
     <t>臺中市西屯區信安段02390005地號</t>
   </si>
   <si>
+    <t>100000分之1036</t>
+  </si>
+  <si>
+    <t>100000分之1518</t>
+  </si>
+  <si>
+    <t>100000分之528</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000分之1036</t>
-  </si>
-  <si>
-    <t>100000分之1518</t>
-  </si>
-  <si>
-    <t>100000分之528</t>
-  </si>
-  <si>
     <t>100000分之1020</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>郭綺雯</t>
   </si>
   <si>
-    <t>74年11月18日</t>
-  </si>
-  <si>
     <t>95年05月17日</t>
   </si>
   <si>
@@ -121,57 +121,39 @@
     <t>贈與</t>
   </si>
   <si>
+    <t>11000000(含房地及停車位編號85208其上房屋建號為臺中市南屯區惠義段588號）</t>
+  </si>
+  <si>
+    <t>23400000(含房地及停車位編號59其上房屋建號為臺中市南屯區惠義段606號）</t>
+  </si>
+  <si>
+    <t>6000000(含房地及停車位）</t>
+  </si>
+  <si>
+    <t>16800000(含房地及停車位編號717293155156其上房屋建號為臺中市南屯區惠義段597號）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmpf6b91</t>
+  </si>
+  <si>
+    <t>臺中市大肚區井子頭段井子頭小段00463000建號</t>
+  </si>
+  <si>
+    <t>74年11月18曰</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>11000000(含房地及停車位編號85208其上房屋建號為臺中市南屯區惠義段588號）</t>
-  </si>
-  <si>
-    <t>23400000(含房地及停車位編號59其上房屋建號為臺中市南屯區惠義段606號）</t>
-  </si>
-  <si>
-    <t>6000000(含房地及停車位）</t>
-  </si>
-  <si>
-    <t>16800000(含房地及停車位編號717293155156其上房屋建號為臺中市南屯區惠義段597號）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-16</t>
-  </si>
-  <si>
-    <t>tmpf6b91</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市大肚區井子頭段井子頭小段00463000建號</t>
-  </si>
-  <si>
     <t>臺中市南屯區惠義段00588000建號</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>100000分之414</t>
   </si>
   <si>
-    <t>74年11月18曰</t>
-  </si>
-  <si>
     <t>95年05月17曰</t>
   </si>
   <si>
@@ -274,18 +253,12 @@
     <t>23400000(與606建號一併購買共有部分:含停車位編號059)</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>小客車奧迪</t>
   </si>
   <si>
+    <t>96年12月28日</t>
+  </si>
+  <si>
     <t>小客車BMWX5</t>
   </si>
   <si>
@@ -295,9 +268,6 @@
     <t>小客車朋馳</t>
   </si>
   <si>
-    <t>96年12月28日</t>
-  </si>
-  <si>
     <t>100年01月11曰</t>
   </si>
   <si>
@@ -307,24 +277,15 @@
     <t>101年02月29曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台新國際商業銀行文心分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>國泰世華商業銀行臺中分行</t>
   </si>
   <si>
@@ -355,18 +316,12 @@
     <t>中華郵政股份有限公司臺中法院郵局</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活期存款.</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -379,9 +334,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>旭能光電</t>
   </si>
   <si>
@@ -451,9 +403,6 @@
     <t>尚鋒興業</t>
   </si>
   <si>
-    <t>紀〇瑜</t>
-  </si>
-  <si>
     <t>紀〇耀</t>
   </si>
   <si>
@@ -487,18 +436,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>千禧金黉貝</t>
+  </si>
+  <si>
     <t>國際紐約人壽</t>
   </si>
   <si>
@@ -508,9 +451,6 @@
     <t>中國人壽</t>
   </si>
   <si>
-    <t>千禧金黉貝</t>
-  </si>
-  <si>
     <t>千禧傳家寶</t>
   </si>
   <si>
@@ -529,27 +469,18 @@
     <t>保誠美滿養老保險</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押貸款</t>
   </si>
   <si>
     <t>臺中市大肚鄉農會臺中市大肚區沙田路</t>
   </si>
   <si>
+    <t>96年03月15日</t>
+  </si>
+  <si>
+    <t>付房屋貸款</t>
+  </si>
+  <si>
     <t>中國信託商業銀行文心分行臺中市北屯區文心路</t>
   </si>
   <si>
@@ -559,9 +490,6 @@
     <t>台新國際商業銀行文心分行臺中市北屯區文心路</t>
   </si>
   <si>
-    <t>96年03月15日</t>
-  </si>
-  <si>
     <t>96年09月21日</t>
   </si>
   <si>
@@ -569,9 +497,6 @@
   </si>
   <si>
     <t>100年10月12日</t>
-  </si>
-  <si>
-    <t>付房屋貸款</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -933,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,25 +907,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>156</v>
+        <v>3249.05</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -1009,45 +940,51 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>918</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.01036</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>33.660158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>3249.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
@@ -1056,45 +993,51 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>918</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.01518</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>49.320579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>3249.05</v>
+        <v>2033.48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>31</v>
@@ -1103,166 +1046,137 @@
         <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>918</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10.7367744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>2033.48</v>
+        <v>78.57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>612846</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>918</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>78.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>78.57</v>
+        <v>3249.05</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2">
-        <v>612846</v>
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>918</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3249.05</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2">
-        <v>918</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
+      <c r="P6" s="2">
+        <v>0.0102</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>33.14031</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1280,354 +1194,354 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>189.42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>189.42</v>
+        <v>138.19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
-        <v>138.19</v>
+        <v>7702.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>7702.32</v>
+        <v>2712.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>2712.6</v>
+        <v>3129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>3129</v>
+        <v>35.57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>35.57</v>
+        <v>136.43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7702.32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2">
-        <v>136.43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
-        <v>7702.32</v>
+        <v>2712.6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>2712.6</v>
+        <v>3129</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>3129</v>
+        <v>203.31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>203.31</v>
+        <v>7702.32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
-        <v>7702.32</v>
+        <v>2712.6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>2712.6</v>
+        <v>3129</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
@@ -1636,58 +1550,32 @@
         <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
-        <v>3129</v>
+        <v>156.99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2">
-        <v>156.99</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="2">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2">
         <v>426700</v>
       </c>
     </row>
@@ -1698,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,113 +1594,90 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1781</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
-        <v>1781</v>
+        <v>4799</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2">
-        <v>800000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
-        <v>4799</v>
+        <v>2461</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2">
-        <v>1450000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
-        <v>2461</v>
+        <v>3199</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3199</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -1823,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1831,296 +1696,273 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>551167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>551167</v>
+        <v>17631</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>17631</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>277</v>
+        <v>110099</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>110099</v>
+        <v>495395</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3193.05</v>
+      </c>
       <c r="G6" s="2">
-        <v>495395</v>
+        <v>95822</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3193.05</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>95822</v>
+        <v>1245136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1245136</v>
+        <v>31766</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>31766</v>
+        <v>17255</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>17255</v>
+        <v>217383</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>217383</v>
+        <v>878540</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>878540</v>
+        <v>134477</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>134477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
         <v>134477</v>
       </c>
     </row>
@@ -2131,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2145,16 +1987,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2180,13 +2022,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2195,1130 +2037,1086 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>918</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>140000</v>
+        <v>269000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
-        <v>1400000</v>
+        <v>2690000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>918</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>269000</v>
+        <v>12070</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
-        <v>2690000</v>
+        <v>120700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>918</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>12070</v>
+        <v>36718</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
-        <v>120700</v>
+        <v>367180</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>918</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>36718</v>
+        <v>25278</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
-        <v>367180</v>
+        <v>252780</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>918</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>25278</v>
+        <v>82400</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
-        <v>252780</v>
+        <v>824000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>918</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>82400</v>
+        <v>76421</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2">
-        <v>824000</v>
+        <v>764210</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>918</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>76421</v>
+        <v>82950</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2">
-        <v>764210</v>
+        <v>829500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>918</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>82950</v>
+        <v>14536</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2">
-        <v>829500</v>
+        <v>145360</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>918</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>14536</v>
+        <v>11632</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2">
-        <v>145360</v>
+        <v>116320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>918</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>11632</v>
+        <v>1253</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2">
-        <v>116320</v>
+        <v>12530</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>918</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>1253</v>
+        <v>15000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G13" s="2">
-        <v>12530</v>
+        <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <v>918</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>15000</v>
+        <v>114240</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2">
-        <v>150000</v>
+        <v>1142400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
-        <v>114240</v>
+        <v>100000</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1142400</v>
+        <v>87</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>918</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>100000</v>
+        <v>216156</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2161560</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2">
         <v>918</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
-        <v>216156</v>
+        <v>100000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2161560</v>
+        <v>87</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
         <v>918</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100000</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2570060</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <v>918</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2570060</v>
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2">
         <v>918</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2">
         <v>918</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
+      </c>
+      <c r="D21" s="2">
+        <v>37500</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
+      </c>
+      <c r="G21" s="2">
+        <v>375000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2">
         <v>918</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="2">
-        <v>37500</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G22" s="2">
-        <v>375000</v>
+        <v>210000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2">
         <v>918</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>159</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2">
-        <v>210000</v>
+        <v>1590</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2">
         <v>918</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G24" s="2">
-        <v>1590</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2">
         <v>918</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>150</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6374</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G25" s="2">
-        <v>100000</v>
+        <v>63740</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2">
         <v>918</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>6374</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2">
-        <v>63740</v>
+        <v>100000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" s="2">
         <v>918</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1">
-        <v>114</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="2">
-        <v>918</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="2">
         <v>114</v>
       </c>
     </row>
@@ -3329,7 +3127,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3337,108 +3135,108 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -3446,30 +3244,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>144</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3479,7 +3263,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3487,114 +3271,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1426133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
-        <v>1426133</v>
+        <v>2914607</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
-        <v>2914607</v>
+        <v>11540590</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
-        <v>11540590</v>
+        <v>15673437</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>157</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15673437</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市大肚區井子頭段井子頭小段00100007地號</t>
+  </si>
+  <si>
     <t>臺中市南屯區惠義段01680000地號</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>臺中市西屯區信安段02390005地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>100000分之1036</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>100000分之528</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之1020</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>郭綺雯</t>
   </si>
   <si>
+    <t>74年11月18日</t>
+  </si>
+  <si>
     <t>95年05月17日</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>贈與</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>11000000(含房地及停車位編號85208其上房屋建號為臺中市南屯區惠義段588號）</t>
   </si>
   <si>
@@ -148,63 +157,60 @@
     <t>臺中市大肚區井子頭段井子頭小段00463000建號</t>
   </si>
   <si>
+    <t>臺中市南屯區惠義段00588000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00616000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00617000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00618000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠民段00864000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00597000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00606000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區信安段04115000建號</t>
+  </si>
+  <si>
+    <t>100000分之1592</t>
+  </si>
+  <si>
+    <t>100000分之1111</t>
+  </si>
+  <si>
+    <t>100000分之1916</t>
+  </si>
+  <si>
+    <t>100000分之1986</t>
+  </si>
+  <si>
+    <t>100000分之1093</t>
+  </si>
+  <si>
+    <t>100000分之2265</t>
+  </si>
+  <si>
+    <t>100000分之1038</t>
+  </si>
+  <si>
+    <t>100000分之1627</t>
+  </si>
+  <si>
+    <t>100000分之414</t>
+  </si>
+  <si>
     <t>74年11月18曰</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00588000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00616000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00617000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00618000建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠民段00864000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00597000建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00606000建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區信安段04115000建號</t>
-  </si>
-  <si>
-    <t>100000分之1592</t>
-  </si>
-  <si>
-    <t>100000分之1111</t>
-  </si>
-  <si>
-    <t>100000分之1916</t>
-  </si>
-  <si>
-    <t>100000分之1986</t>
-  </si>
-  <si>
-    <t>100000分之1093</t>
-  </si>
-  <si>
-    <t>100000分之2265</t>
-  </si>
-  <si>
-    <t>100000分之1038</t>
-  </si>
-  <si>
-    <t>100000分之1627</t>
-  </si>
-  <si>
-    <t>100000分之414</t>
-  </si>
-  <si>
     <t>95年05月17曰</t>
   </si>
   <si>
@@ -401,6 +407,9 @@
   </si>
   <si>
     <t>尚鋒興業</t>
+  </si>
+  <si>
+    <t>紀〇瑜</t>
   </si>
   <si>
     <t>紀〇耀</t>
@@ -858,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,266 +925,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3249.05</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>918</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.01036</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>33.660158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>3249.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>918</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.01518</v>
+        <v>0.01036</v>
       </c>
       <c r="Q3" s="2">
-        <v>49.320579</v>
+        <v>33.660158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>2033.48</v>
+        <v>3249.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>918</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00528</v>
+        <v>0.01518</v>
       </c>
       <c r="Q4" s="2">
-        <v>10.7367744</v>
+        <v>49.320579</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>78.57</v>
+        <v>2033.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2">
-        <v>612846</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>918</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.00528</v>
       </c>
       <c r="Q5" s="2">
-        <v>78.57</v>
+        <v>10.7367744</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2">
+        <v>78.57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>612846</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>918</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>78.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
         <v>3249.05</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>918</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="2">
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>918</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
         <v>19</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>0.0102</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q7" s="2">
         <v>33.14031</v>
       </c>
     </row>
@@ -1186,397 +1248,855 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1">
-        <v>189.42</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>138.19</v>
+        <v>189.42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>918</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>189.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="2">
-        <v>7702.32</v>
+        <v>138.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>918</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>138.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>2712.6</v>
+        <v>7702.32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>918</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.01592</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>122.6209344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>3129</v>
+        <v>2712.6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>918</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.01111</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>30.136986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>35.57</v>
+        <v>3129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>918</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.01916</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>59.95164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>136.43</v>
+        <v>35.57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>918</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>136.43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7702.32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>918</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>136.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="2">
-        <v>2712.6</v>
+        <v>7702.32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>918</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.01986</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>152.9680752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>3129</v>
+        <v>2712.6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>918</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.01093</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>29.648718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3129</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>918</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
+        <v>35</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.02265</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>70.87185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2">
         <v>203.31</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>918</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2">
+        <v>38</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>203.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7702.32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2">
-        <v>2712.6</v>
+        <v>7702.32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>918</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="2">
+        <v>39</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.01038</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>79.9500816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>3129</v>
+        <v>2712.6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>918</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="2">
+        <v>40</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.01627</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>44.134002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
+        <v>3129</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>918</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="2">
+        <v>41</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.00414</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>12.95406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
         <v>156.99</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2">
         <v>426700</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>918</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="2">
+        <v>42</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>156.99</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1594,19 +2114,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1">
         <v>1781</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
         <v>800000</v>
@@ -1614,70 +2134,93 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="2">
-        <v>4799</v>
+        <v>1781</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
-        <v>1450000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2">
-        <v>2461</v>
+        <v>4799</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
-        <v>1200000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2461</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2">
         <v>3199</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -1688,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1696,16 +2239,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1714,255 +2257,276 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>17631</v>
+        <v>551167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>277</v>
+        <v>17631</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>110099</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>495395</v>
+        <v>110099</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3193.05</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>95822</v>
+        <v>495395</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3193.05</v>
+      </c>
       <c r="G7" s="2">
-        <v>1245136</v>
+        <v>95822</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>31766</v>
+        <v>1245136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>17255</v>
+        <v>31766</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>217383</v>
+        <v>17255</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>878540</v>
+        <v>217383</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>134477</v>
+        <v>878540</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
+        <v>134477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>134477</v>
       </c>
     </row>
@@ -1973,7 +2537,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1987,13 +2551,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2022,13 +2586,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2037,1086 +2601,1130 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>918</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2">
-        <v>269000</v>
+        <v>140000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>2690000</v>
+        <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>918</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>12070</v>
+        <v>269000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2">
-        <v>120700</v>
+        <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>918</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>36718</v>
+        <v>12070</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2">
-        <v>367180</v>
+        <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>918</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>25278</v>
+        <v>36718</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2">
-        <v>252780</v>
+        <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>918</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>82400</v>
+        <v>25278</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
-        <v>824000</v>
+        <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>918</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>76421</v>
+        <v>82400</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2">
-        <v>764210</v>
+        <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>918</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N8" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>82950</v>
+        <v>76421</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2">
-        <v>829500</v>
+        <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>918</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N9" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>14536</v>
+        <v>82950</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2">
-        <v>145360</v>
+        <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <v>918</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N10" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>11632</v>
+        <v>14536</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2">
-        <v>116320</v>
+        <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2">
         <v>918</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N11" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>1253</v>
+        <v>11632</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2">
-        <v>12530</v>
+        <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2">
         <v>918</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N12" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
-        <v>15000</v>
+        <v>1253</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2">
-        <v>150000</v>
+        <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2">
         <v>918</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N13" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>114240</v>
+        <v>15000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2">
-        <v>1142400</v>
+        <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="2">
         <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>100000</v>
+        <v>114240</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="2">
         <v>918</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
-        <v>216156</v>
+        <v>100000</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2161560</v>
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" s="2">
         <v>918</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N16" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>100000</v>
+        <v>216156</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="2">
         <v>918</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N17" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100000</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2570060</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" s="2">
         <v>918</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N18" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2">
         <v>918</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N19" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L20" s="2">
         <v>918</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N20" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="2">
-        <v>37500</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="2">
-        <v>375000</v>
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2">
         <v>918</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N21" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37500</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2">
-        <v>210000</v>
+        <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" s="2">
         <v>918</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2">
-        <v>1590</v>
+        <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" s="2">
         <v>918</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N23" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>159</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2">
-        <v>100000</v>
+        <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" s="2">
         <v>918</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N24" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6374</v>
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2">
-        <v>63740</v>
+        <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="2">
         <v>918</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N25" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>10000</v>
+        <v>6374</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2">
+        <v>63740</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2">
+        <v>918</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2">
         <v>100000</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="2">
-        <v>918</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="H27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2">
+        <v>918</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="2">
         <v>114</v>
       </c>
     </row>
@@ -3127,7 +3735,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3135,125 +3743,139 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
+        <v>140</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3885,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3271,30 +3893,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1">
         <v>1426133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -3303,59 +3925,82 @@
         <v>153</v>
       </c>
       <c r="E2" s="2">
-        <v>2914607</v>
+        <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E3" s="2">
-        <v>11540590</v>
+        <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E4" s="2">
+        <v>11540590</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>157</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="2">
         <v>15673437</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>159</v>
+      <c r="F5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -259,19 +259,22 @@
     <t>23400000(與606建號一併購買共有部分:含停車位編號059)</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>小客車奧迪</t>
   </si>
   <si>
+    <t>小客車BMWX5</t>
+  </si>
+  <si>
+    <t>小客車福斯</t>
+  </si>
+  <si>
+    <t>小客車朋馳</t>
+  </si>
+  <si>
     <t>96年12月28日</t>
-  </si>
-  <si>
-    <t>小客車BMWX5</t>
-  </si>
-  <si>
-    <t>小客車福斯</t>
-  </si>
-  <si>
-    <t>小客車朋馳</t>
   </si>
   <si>
     <t>100年01月11曰</t>
@@ -2106,38 +2109,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1">
-        <v>1781</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
@@ -2146,7 +2170,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -2154,8 +2178,29 @@
       <c r="G2" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>918</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>53</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -2177,8 +2222,29 @@
       <c r="G3" s="2">
         <v>1450000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>918</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -2192,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -2200,8 +2266,29 @@
       <c r="G4" s="2">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>918</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -2215,13 +2302,34 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>400000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>918</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2239,13 +2347,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -2260,13 +2368,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -2281,13 +2389,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -2302,13 +2410,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -2323,13 +2431,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -2344,13 +2452,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -2365,13 +2473,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -2388,13 +2496,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -2409,13 +2517,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2430,13 +2538,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2451,13 +2559,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2472,13 +2580,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2493,13 +2601,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2514,13 +2622,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2551,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2589,10 +2697,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2601,13 +2709,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2633,10 +2741,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2645,13 +2753,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2677,7 +2785,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2689,13 +2797,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2721,7 +2829,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2733,13 +2841,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2765,7 +2873,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2777,13 +2885,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2809,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2821,13 +2929,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2853,7 +2961,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2865,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2897,7 +3005,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2909,13 +3017,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -2941,7 +3049,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -2953,13 +3061,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -2985,7 +3093,7 @@
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -2997,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3029,7 +3137,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3041,13 +3149,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3073,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3085,13 +3193,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3117,7 +3225,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3129,13 +3237,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3161,7 +3269,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3173,13 +3281,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2">
         <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3205,7 +3313,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3217,13 +3325,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3249,7 +3357,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3261,13 +3369,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2">
         <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3293,7 +3401,7 @@
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3305,13 +3413,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3337,25 +3445,25 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2">
         <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3381,25 +3489,25 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3425,25 +3533,25 @@
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3469,10 +3577,10 @@
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -3481,13 +3589,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2">
         <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3513,25 +3621,25 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2">
         <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3557,7 +3665,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3569,13 +3677,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2">
         <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3601,25 +3709,25 @@
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2">
         <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3645,7 +3753,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -3657,13 +3765,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2">
         <v>63740</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>41</v>
@@ -3689,7 +3797,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -3701,13 +3809,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2">
         <v>100000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>41</v>
@@ -3743,10 +3851,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3757,10 +3865,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3771,10 +3879,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3785,10 +3893,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3799,10 +3907,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3813,10 +3921,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3827,10 +3935,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3841,10 +3949,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3855,10 +3963,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3869,10 +3977,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -3893,22 +4001,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1">
         <v>1426133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3916,22 +4024,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3939,22 +4047,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3962,22 +4070,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3985,22 +4093,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -259,6 +259,9 @@
     <t>23400000(與606建號一併購買共有部分:含停車位編號059)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t>101年02月29曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台新國際商業銀行文心分行</t>
@@ -1333,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1386,7 +1392,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1439,7 +1445,7 @@
         <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>41</v>
@@ -1492,7 +1498,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>41</v>
@@ -1545,7 +1551,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
@@ -1598,7 +1604,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>41</v>
@@ -1651,7 +1657,7 @@
         <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>41</v>
@@ -1704,7 +1710,7 @@
         <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>41</v>
@@ -1757,7 +1763,7 @@
         <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>41</v>
@@ -1810,7 +1816,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>41</v>
@@ -1863,7 +1869,7 @@
         <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>41</v>
@@ -1916,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>41</v>
@@ -1969,7 +1975,7 @@
         <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>41</v>
@@ -2022,7 +2028,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>41</v>
@@ -2075,7 +2081,7 @@
         <v>426700</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>41</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2161,7 +2167,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2">
         <v>1781</v>
@@ -2170,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -2179,7 +2185,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2205,7 +2211,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2">
         <v>4799</v>
@@ -2214,7 +2220,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -2223,7 +2229,7 @@
         <v>1450000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2249,7 +2255,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>2461</v>
@@ -2258,7 +2264,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -2267,7 +2273,7 @@
         <v>1200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2293,7 +2299,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>3199</v>
@@ -2302,7 +2308,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -2311,7 +2317,7 @@
         <v>400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2347,13 +2353,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -2368,13 +2374,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -2389,13 +2395,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -2410,13 +2416,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -2431,13 +2437,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -2452,13 +2458,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -2473,13 +2479,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -2496,13 +2502,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -2517,13 +2523,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2538,13 +2544,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2559,13 +2565,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -2580,13 +2586,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2601,13 +2607,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -2622,13 +2628,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -2659,13 +2665,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2697,10 +2703,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2709,13 +2715,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2741,10 +2747,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2753,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2785,7 +2791,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2797,13 +2803,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2829,7 +2835,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2841,13 +2847,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2873,7 +2879,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2885,13 +2891,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2917,7 +2923,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2929,13 +2935,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2961,7 +2967,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2973,13 +2979,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -3005,7 +3011,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -3017,13 +3023,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -3049,7 +3055,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -3061,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3093,7 +3099,7 @@
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3105,13 +3111,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3137,7 +3143,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3149,13 +3155,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3181,7 +3187,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3193,13 +3199,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3225,7 +3231,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3237,13 +3243,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3269,7 +3275,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3281,13 +3287,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2">
         <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3313,7 +3319,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3325,13 +3331,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3357,7 +3363,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3369,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2">
         <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3401,7 +3407,7 @@
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3413,13 +3419,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3445,25 +3451,25 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2">
         <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3489,25 +3495,25 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3533,25 +3539,25 @@
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3577,10 +3583,10 @@
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -3589,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2">
         <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3621,25 +3627,25 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2">
         <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3665,7 +3671,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3677,13 +3683,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2">
         <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3709,25 +3715,25 @@
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G25" s="2">
         <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3753,7 +3759,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -3765,13 +3771,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2">
         <v>63740</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>41</v>
@@ -3797,7 +3803,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -3809,13 +3815,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2">
         <v>100000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>41</v>
@@ -3851,10 +3857,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3865,10 +3871,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3879,10 +3885,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3893,10 +3899,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3907,10 +3913,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3921,10 +3927,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3935,10 +3941,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3949,10 +3955,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3963,10 +3969,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3977,10 +3983,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -4001,22 +4007,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>1426133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4024,22 +4030,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4047,22 +4053,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4070,22 +4076,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4093,22 +4099,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -292,61 +292,70 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台新國際商業銀行文心分行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行臺中分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行臺中工業區分行</t>
+  </si>
+  <si>
+    <t>臺中縣大肚鄉農會</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南臺中分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行西臺中分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中臺中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司士林法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司臺中法院郵局</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期存款.</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>國泰世華商業銀行臺中分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行臺中工業區分行</t>
-  </si>
-  <si>
-    <t>臺中縣大肚鄉農會</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南臺中分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行西臺中分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行文心分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中臺中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司士林法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司臺中法院郵局</t>
-  </si>
-  <si>
-    <t>活期存款.</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>旭能光電</t>
@@ -2345,13 +2354,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2362,286 +2371,564 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>551167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>551167</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>918</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>17631</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>918</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>918</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>110099</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>918</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>495395</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>918</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>3193.05</v>
-      </c>
-      <c r="G7" s="2">
         <v>95822</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>918</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1245136</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>918</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>31766</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>918</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>17255</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>918</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>217383</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>918</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>878540</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>918</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>134477</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>918</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>134477</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>918</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2665,13 +2952,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2703,10 +2990,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2">
         <v>140000</v>
@@ -2715,13 +3002,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2">
         <v>1400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -2747,10 +3034,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2">
         <v>140000</v>
@@ -2759,13 +3046,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
         <v>1400000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -2791,7 +3078,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2803,13 +3090,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2">
         <v>2690000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2835,7 +3122,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2847,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2">
         <v>120700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2879,7 +3166,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2891,13 +3178,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2">
         <v>367180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2923,7 +3210,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2935,13 +3222,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2">
         <v>252780</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2967,7 +3254,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2979,13 +3266,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2">
         <v>824000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -3011,7 +3298,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -3023,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2">
         <v>764210</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -3055,7 +3342,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -3067,13 +3354,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2">
         <v>829500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -3099,7 +3386,7 @@
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3111,13 +3398,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G11" s="2">
         <v>145360</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3143,7 +3430,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3155,13 +3442,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2">
         <v>116320</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -3187,7 +3474,7 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -3199,13 +3486,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2">
         <v>12530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -3231,7 +3518,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -3243,13 +3530,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2">
         <v>150000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -3275,7 +3562,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -3287,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2">
         <v>1142400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>41</v>
@@ -3319,7 +3606,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3331,13 +3618,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>41</v>
@@ -3363,7 +3650,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -3375,13 +3662,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2">
         <v>2161560</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>41</v>
@@ -3407,7 +3694,7 @@
         <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -3419,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>41</v>
@@ -3451,25 +3738,25 @@
         <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2">
         <v>2570060</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>41</v>
@@ -3495,25 +3782,25 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -3539,25 +3826,25 @@
         <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>41</v>
@@ -3583,10 +3870,10 @@
         <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2">
         <v>37500</v>
@@ -3595,13 +3882,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2">
         <v>375000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>41</v>
@@ -3627,25 +3914,25 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2">
         <v>210000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>41</v>
@@ -3671,7 +3958,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -3683,13 +3970,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2">
         <v>1590</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>41</v>
@@ -3715,25 +4002,25 @@
         <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G25" s="2">
         <v>100000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
@@ -3759,7 +4046,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -3771,13 +4058,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2">
         <v>63740</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>41</v>
@@ -3803,7 +4090,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -3815,13 +4102,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G27" s="2">
         <v>100000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>41</v>
@@ -3857,10 +4144,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3871,10 +4158,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3885,10 +4172,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3899,10 +4186,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3913,10 +4200,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -3927,10 +4214,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -3941,10 +4228,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3955,10 +4242,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3969,10 +4256,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3983,10 +4270,10 @@
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -4007,22 +4294,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1">
         <v>1426133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4030,22 +4317,22 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4053,22 +4340,22 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4076,22 +4363,22 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4099,22 +4386,22 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
+++ b/legislator/property/output/normal/紀國棟_2012-04-16_財產申報表_tmpf6b91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -463,21 +463,24 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>國際紐約人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>千禧金黉貝</t>
   </si>
   <si>
-    <t>國際紐約人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>千禧傳家寶</t>
   </si>
   <si>
@@ -496,37 +499,49 @@
     <t>保誠美滿養老保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
     <t>臺中市大肚鄉農會臺中市大肚區沙田路</t>
   </si>
   <si>
+    <t>中國信託商業銀行文心分行臺中市北屯區文心路</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行豐原分行臺中市豐原區三民路</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行文心分行臺中市北屯區文心路</t>
+  </si>
+  <si>
     <t>96年03月15日</t>
   </si>
   <si>
+    <t>96年09月21日</t>
+  </si>
+  <si>
+    <t>100年05月06日</t>
+  </si>
+  <si>
+    <t>100年10月12日</t>
+  </si>
+  <si>
     <t>付房屋貸款</t>
   </si>
   <si>
-    <t>中國信託商業銀行文心分行臺中市北屯區文心路</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行豐原分行臺中市豐原區三民路</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行文心分行臺中市北屯區文心路</t>
-  </si>
-  <si>
-    <t>96年09月21日</t>
-  </si>
-  <si>
-    <t>100年05月06日</t>
-  </si>
-  <si>
-    <t>100年10月12日</t>
-  </si>
-  <si>
     <t>購置房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -4136,108 +4151,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>918</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>918</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>918</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>918</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>918</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>918</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>142</v>
       </c>
@@ -4245,13 +4407,34 @@
         <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>918</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>143</v>
       </c>
@@ -4259,13 +4442,34 @@
         <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>918</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>144</v>
       </c>
@@ -4273,10 +4477,31 @@
         <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>918</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4286,122 +4511,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1426133</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2">
         <v>1426133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>918</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>2914607</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>918</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E4" s="2">
         <v>11540590</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>918</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2">
         <v>15673437</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>918</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
